--- a/ListasDatos/Martínez López Miguel Ángel_2021.xlsx
+++ b/ListasDatos/Martínez López Miguel Ángel_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="441">
   <si>
     <t>NC</t>
   </si>
@@ -368,6 +368,9 @@
     <t>adriana_arelycg@outlook.com</t>
   </si>
   <si>
+    <t>aisha.naomi05@hotmail.com</t>
+  </si>
+  <si>
     <t>arant0610@gmail.com</t>
   </si>
   <si>
@@ -473,6 +476,9 @@
     <t>2722088572</t>
   </si>
   <si>
+    <t>2721538846</t>
+  </si>
+  <si>
     <t>2721829816</t>
   </si>
   <si>
@@ -620,7 +626,7 @@
     <t>FERNANDO ELOY BUSTOS HERNÁNDEZ</t>
   </si>
   <si>
-    <t>KARINA JAQUELINE LEAL RIVERA CANSECO DIAZ LEAL RIVERA</t>
+    <t>KARINA JAQUELINE LEAL RIVERA</t>
   </si>
   <si>
     <t>MARIA ELENA GONZALEZ TINOCO</t>
@@ -629,6 +635,9 @@
     <t>JOSÉ ADRIÁN CRUZ BERISTAIN</t>
   </si>
   <si>
+    <t>JACINTO CRUZ MARTÍNEZ</t>
+  </si>
+  <si>
     <t>GREGORIO ARROYO MENDOZA</t>
   </si>
   <si>
@@ -734,9 +743,6 @@
     <t>lobatodaniel007@gmail.com</t>
   </si>
   <si>
-    <t>Kakakabs</t>
-  </si>
-  <si>
     <t>bonylopez119@gmail.com</t>
   </si>
   <si>
@@ -791,6 +797,9 @@
     <t>2722581860</t>
   </si>
   <si>
+    <t>2721757221</t>
+  </si>
+  <si>
     <t>2727221943</t>
   </si>
   <si>
@@ -1007,7 +1016,7 @@
     <t>herrerax484@gmail.com</t>
   </si>
   <si>
-    <t>karenjjimenez272@gmail.com</t>
+    <t>karenjjimenez02@gmail.com</t>
   </si>
   <si>
     <t>lopezamadorfernanda@gmail.com</t>
@@ -1076,7 +1085,7 @@
     <t>5623373226</t>
   </si>
   <si>
-    <t>6563386821</t>
+    <t>2721612552</t>
   </si>
   <si>
     <t>2722582314</t>
@@ -1166,6 +1175,9 @@
     <t>CENOBIO HERRERA REYES</t>
   </si>
   <si>
+    <t>MARIA ELENA SÁNCHEZ DATTOLI</t>
+  </si>
+  <si>
     <t>RITA AMADOR JIMÉNEZ</t>
   </si>
   <si>
@@ -1211,7 +1223,7 @@
     <t>GASTON XOTLANIHUA XOTLANIHUA</t>
   </si>
   <si>
-    <t>DESCONOCIDO DESCONOCIDO DESCONOCIDO</t>
+    <t>ABIGAIL XOTLANIHUA TLECUILE</t>
   </si>
   <si>
     <t>MAGDALENA ROBLES RAMÍREZ</t>
@@ -1232,6 +1244,9 @@
     <t>herreraoscar0889@gmail.com</t>
   </si>
   <si>
+    <t>SanchezDattoli@hotmail.com</t>
+  </si>
+  <si>
     <t>ritaamador16@gmail.com</t>
   </si>
   <si>
@@ -1280,6 +1295,9 @@
     <t>2722072939</t>
   </si>
   <si>
+    <t>2721574677</t>
+  </si>
+  <si>
     <t>2721813355</t>
   </si>
   <si>
@@ -1317,6 +1335,9 @@
   </si>
   <si>
     <t>2722079339</t>
+  </si>
+  <si>
+    <t>2722265954</t>
   </si>
 </sst>
 </file>
@@ -1738,19 +1759,19 @@
         <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I2" t="s">
         <v>108</v>
       </c>
       <c r="J2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1770,19 +1791,19 @@
         <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1802,13 +1823,13 @@
         <v>110</v>
       </c>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1828,19 +1849,19 @@
         <v>111</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1860,19 +1881,19 @@
         <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I6" t="s">
         <v>112</v>
       </c>
       <c r="J6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1892,16 +1913,16 @@
         <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1921,16 +1942,16 @@
         <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1950,16 +1971,16 @@
         <v>115</v>
       </c>
       <c r="F9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="J9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1979,19 +2000,19 @@
         <v>116</v>
       </c>
       <c r="F10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I10" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2007,6 +2028,21 @@
       <c r="D11" t="s">
         <v>81</v>
       </c>
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J11" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
@@ -2022,22 +2058,22 @@
         <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H12" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I12" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2054,22 +2090,22 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2086,22 +2122,22 @@
         <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H14" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J14" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2118,19 +2154,19 @@
         <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H15" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I15" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J15" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2147,19 +2183,19 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H16" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I16" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="J16" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2176,22 +2212,22 @@
         <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H17" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J17" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2208,19 +2244,19 @@
         <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H18" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J18" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2237,19 +2273,19 @@
         <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H19" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I19" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="J19" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2266,22 +2302,19 @@
         <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I20" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="J20" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2298,22 +2331,22 @@
         <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H21" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J21" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2330,22 +2363,22 @@
         <v>92</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H22" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J22" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2362,19 +2395,19 @@
         <v>93</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H23" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I23" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2391,22 +2424,22 @@
         <v>94</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H24" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I24" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J24" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2423,22 +2456,22 @@
         <v>95</v>
       </c>
       <c r="E25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F25" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G25" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H25" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I25" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J25" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2455,16 +2488,16 @@
         <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F26" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H26" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2481,19 +2514,19 @@
         <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H27" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I27" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J27" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2510,22 +2543,22 @@
         <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H28" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I28" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J28" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2542,22 +2575,22 @@
         <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F29" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J29" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2574,19 +2607,19 @@
         <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H30" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J30" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2603,22 +2636,22 @@
         <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H31" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I31" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J31" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2635,22 +2668,22 @@
         <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F32" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G32" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H32" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J32" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2667,19 +2700,19 @@
         <v>103</v>
       </c>
       <c r="E33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H33" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I33" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J33" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2696,22 +2729,22 @@
         <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F34" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G34" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H34" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I34" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J34" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2728,22 +2761,22 @@
         <v>105</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H35" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I35" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J35" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2760,16 +2793,16 @@
         <v>106</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F36" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H36" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J36" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2786,19 +2819,19 @@
         <v>107</v>
       </c>
       <c r="E37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F37" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H37" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I37" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J37" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2860,31 +2893,31 @@
         <v>19330051920125</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="J2" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2892,31 +2925,31 @@
         <v>19330051920126</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="I3" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="J3" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2924,31 +2957,31 @@
         <v>19330051920127</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E4" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G4" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="I4" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="J4" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2956,28 +2989,28 @@
         <v>19330051920128</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D5" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F5" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H5" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I5" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="J5" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2985,31 +3018,31 @@
         <v>19330051920129</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D6" t="s">
         <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F6" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G6" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H6" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="I6" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="J6" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3017,19 +3050,28 @@
         <v>19330051920130</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F7" t="s">
-        <v>353</v>
+        <v>356</v>
+      </c>
+      <c r="H7" t="s">
+        <v>386</v>
+      </c>
+      <c r="I7" t="s">
+        <v>409</v>
+      </c>
+      <c r="J7" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3040,28 +3082,28 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E8" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F8" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G8" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H8" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="I8" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="J8" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3075,25 +3117,25 @@
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E9" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F9" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G9" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H9" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="I9" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="J9" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3101,25 +3143,25 @@
         <v>19330051920132</v>
       </c>
       <c r="B10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D10" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E10" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F10" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G10" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H10" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3127,28 +3169,28 @@
         <v>19330051920133</v>
       </c>
       <c r="B11" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C11" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D11" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E11" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F11" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H11" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="I11" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="J11" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3156,31 +3198,31 @@
         <v>19330051920134</v>
       </c>
       <c r="B12" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C12" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E12" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F12" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G12" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H12" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="I12" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="J12" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3188,28 +3230,28 @@
         <v>19330051920135</v>
       </c>
       <c r="B13" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C13" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D13" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E13" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F13" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H13" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="I13" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="J13" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3220,25 +3262,25 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D14" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E14" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F14" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H14" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="I14" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="J14" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3246,31 +3288,31 @@
         <v>19330051920136</v>
       </c>
       <c r="B15" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E15" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F15" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G15" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H15" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="I15" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="J15" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3281,28 +3323,28 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D16" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E16" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F16" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G16" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H16" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="I16" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="J16" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3310,31 +3352,31 @@
         <v>19330051920140</v>
       </c>
       <c r="B17" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C17" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D17" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E17" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F17" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G17" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H17" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="I17" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="J17" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3342,7 +3384,7 @@
         <v>19330051920139</v>
       </c>
       <c r="B18" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C18" t="s">
         <v>47</v>
@@ -3351,22 +3393,22 @@
         <v>107</v>
       </c>
       <c r="E18" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F18" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G18" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H18" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="I18" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="J18" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3374,28 +3416,28 @@
         <v>19330051920143</v>
       </c>
       <c r="B19" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C19" t="s">
         <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E19" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F19" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H19" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="I19" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="J19" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3403,28 +3445,28 @@
         <v>19330051920141</v>
       </c>
       <c r="B20" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C20" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D20" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E20" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F20" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G20" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H20" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="J20" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3432,31 +3474,31 @@
         <v>19330051920144</v>
       </c>
       <c r="B21" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C21" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D21" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E21" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F21" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G21" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H21" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="I21" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J21" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3464,31 +3506,31 @@
         <v>19330051920145</v>
       </c>
       <c r="B22" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C22" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D22" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E22" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F22" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G22" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H22" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="I22" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J22" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3499,22 +3541,28 @@
         <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D23" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E23" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F23" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G23" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H23" t="s">
-        <v>398</v>
+        <v>402</v>
+      </c>
+      <c r="I23" t="s">
+        <v>349</v>
+      </c>
+      <c r="J23" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3528,25 +3576,25 @@
         <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E24" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F24" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G24" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H24" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="I24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J24" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
